--- a/safe-box-doc/接口-v3.0.xlsx
+++ b/safe-box-doc/接口-v3.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" activeTab="1"/>
+    <workbookView windowWidth="19455" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="5" r:id="rId1"/>
@@ -36,13 +36,16 @@
     <t>返回字段</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>测试情况</t>
   </si>
   <si>
     <t>登录</t>
   </si>
   <si>
-    <t>接口0-login</t>
+    <t>接口0-uniform/login</t>
   </si>
   <si>
     <t>1.name(用户名)
@@ -55,32 +58,149 @@
     <t>√</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>新增接口-uniform/getAccountsCustomersBoxs</t>
+  </si>
+  <si>
+    <t>cardRfid 卡RFID</t>
+  </si>
+  <si>
+    <t>customer列表</t>
+  </si>
+  <si>
+    <t>customerId(客户 ID)</t>
+  </si>
+  <si>
+    <t>customerType(客户类型)</t>
+  </si>
+  <si>
+    <t>customerName(姓名)</t>
+  </si>
+  <si>
+    <t>customerPwd(密码)</t>
+  </si>
+  <si>
+    <t>customerSex(性别)</t>
+  </si>
+  <si>
+    <t>certificateType(证件类型)</t>
+  </si>
+  <si>
+    <t>certificateNo(证件号)</t>
+  </si>
+  <si>
+    <t>homeAddress(家庭地址)</t>
+  </si>
+  <si>
+    <t>unitAddress(公司地址)</t>
+  </si>
+  <si>
+    <t>phone(电话号码)</t>
+  </si>
+  <si>
+    <t>mobile(手机号)</t>
+  </si>
+  <si>
+    <t>post(邮编)</t>
+  </si>
+  <si>
+    <t>photo(照片)</t>
+  </si>
+  <si>
+    <t>remark(备注)</t>
+  </si>
+  <si>
+    <t>Box列表</t>
+  </si>
+  <si>
+    <t>boxId(箱子ID)</t>
+  </si>
+  <si>
+    <t>boxNo(箱号)</t>
+  </si>
+  <si>
+    <t>lockId(锁编号)</t>
+  </si>
+  <si>
+    <t>status(箱子状态)</t>
+  </si>
+  <si>
+    <t>remark(箱子备注)</t>
+  </si>
+  <si>
+    <t>sideNo(侧号)</t>
+  </si>
+  <si>
+    <t>rowNo(行号)</t>
+  </si>
+  <si>
+    <t>columnNo(列号)</t>
+  </si>
+  <si>
+    <t>rowPosX(行坐标)</t>
+  </si>
+  <si>
+    <t>columnPosX(列坐标)</t>
+  </si>
+  <si>
+    <t>boxModel(箱型)</t>
+  </si>
+  <si>
+    <t>bankId(银行网点)</t>
+  </si>
+  <si>
+    <t>rentId(租赁号)</t>
+  </si>
+  <si>
+    <t>keyNo(钥匙号)</t>
+  </si>
+  <si>
+    <t>Account列表</t>
+  </si>
+  <si>
+    <t>accountId(账户ID)</t>
+  </si>
+  <si>
+    <t>accountType(账户类型)</t>
+  </si>
+  <si>
+    <t>openAccountDate(开户日期)</t>
+  </si>
+  <si>
+    <t>cancelAccountDate(账户注销日期)</t>
+  </si>
+  <si>
+    <t>isAccountFree(开户费用: 免费-0, 收费-1)</t>
+  </si>
+  <si>
+    <t>openAccountFee(开户费用)</t>
+  </si>
+  <si>
+    <t>paymentType(付款方式：现金-0, 刷卡-1, 支票-2)</t>
+  </si>
+  <si>
+    <t>amountSum(金额总计)</t>
+  </si>
+  <si>
+    <t>customerSum(账户关联的客户数目)</t>
   </si>
   <si>
     <t>新开户</t>
   </si>
   <si>
-    <t>接口1-getAccoutsById</t>
+    <t>接口1-openAccount/getAccoutsById</t>
   </si>
   <si>
     <t>1.certificateType(1-身份证 2-RFID)
 2.certificateNo(证件号码)</t>
   </si>
   <si>
-    <t>accountId(账户ID)</t>
-  </si>
-  <si>
-    <t>accountType(账户类型)</t>
-  </si>
-  <si>
-    <t>bankId(银行网点)</t>
-  </si>
-  <si>
     <t>customerNum(该账户拥有用户人数)</t>
   </si>
   <si>
-    <t>接口2-validateCustomer</t>
+    <t>接口2-openAccount/validateCustomer</t>
   </si>
   <si>
     <t>pwdType(密码类型：字符密码-0, 指纹密码-1, 备用指纹密码-2)</t>
@@ -89,7 +209,7 @@
     <t>pwd(密码)</t>
   </si>
   <si>
-    <t>接口3-getAccountInfo</t>
+    <t>接口3-openAccount/getAccountInfo</t>
   </si>
   <si>
     <t>accountId(账户id)
@@ -129,9 +249,6 @@
     <t>mobile手机号</t>
   </si>
   <si>
-    <t>cardRfid 卡RFID</t>
-  </si>
-  <si>
     <t>cardType卡类型</t>
   </si>
   <si>
@@ -147,7 +264,7 @@
     <t>endDate到期日</t>
   </si>
   <si>
-    <t>接口4-setAccountInfo</t>
+    <t>接口4-openAccount/setAccountInfo</t>
   </si>
   <si>
     <t>账户信息</t>
@@ -159,25 +276,13 @@
     <t>bankId(网点)</t>
   </si>
   <si>
-    <t>isAccountFree(开户费用: 免费-0, 收费-1)</t>
-  </si>
-  <si>
     <t>keyNo钥匙号</t>
   </si>
   <si>
-    <t>openAccountFee(开户费用)</t>
-  </si>
-  <si>
     <t>paymentType (付款方式：现金-0, 刷卡-1, 支票-2)</t>
   </si>
   <si>
-    <t>amountSum(金额总计)</t>
-  </si>
-  <si>
     <t>leaseNo 租约编号</t>
-  </si>
-  <si>
-    <t>customerSum(账户关联的客户数目)</t>
   </si>
   <si>
     <t>leaseRemark 租约备注</t>
@@ -314,112 +419,7 @@
     <t>reserveFingerPwd 备用指纹</t>
   </si>
   <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>新增接口-getAccountsCustomersBoxs</t>
-  </si>
-  <si>
-    <t>customer列表</t>
-  </si>
-  <si>
-    <t>customerId(客户 ID)</t>
-  </si>
-  <si>
-    <t>customerType(客户类型)</t>
-  </si>
-  <si>
-    <t>customerName(姓名)</t>
-  </si>
-  <si>
-    <t>customerPwd(密码)</t>
-  </si>
-  <si>
-    <t>customerSex(性别)</t>
-  </si>
-  <si>
-    <t>certificateType(证件类型)</t>
-  </si>
-  <si>
-    <t>certificateNo(证件号)</t>
-  </si>
-  <si>
-    <t>homeAddress(家庭地址)</t>
-  </si>
-  <si>
-    <t>unitAddress(公司地址)</t>
-  </si>
-  <si>
-    <t>phone(电话号码)</t>
-  </si>
-  <si>
-    <t>mobile(手机号)</t>
-  </si>
-  <si>
-    <t>post(邮编)</t>
-  </si>
-  <si>
-    <t>photo(照片)</t>
-  </si>
-  <si>
-    <t>remark(备注)</t>
-  </si>
-  <si>
-    <t>Box列表</t>
-  </si>
-  <si>
-    <t>boxId(箱子ID)</t>
-  </si>
-  <si>
-    <t>boxNo(箱号)</t>
-  </si>
-  <si>
-    <t>lockId(锁编号)</t>
-  </si>
-  <si>
-    <t>status(箱子状态)</t>
-  </si>
-  <si>
-    <t>remark(箱子备注)</t>
-  </si>
-  <si>
-    <t>sideNo(侧号)</t>
-  </si>
-  <si>
-    <t>rowNo(行号)</t>
-  </si>
-  <si>
-    <t>columnNo(列号)</t>
-  </si>
-  <si>
-    <t>rowPosX(行坐标)</t>
-  </si>
-  <si>
-    <t>columnPosX(列坐标)</t>
-  </si>
-  <si>
-    <t>boxModel(箱型)</t>
-  </si>
-  <si>
-    <t>rentId(租赁号)</t>
-  </si>
-  <si>
-    <t>keyNo(钥匙号)</t>
-  </si>
-  <si>
-    <t>Account列表</t>
-  </si>
-  <si>
-    <t>openAccountDate(开户日期)</t>
-  </si>
-  <si>
-    <t>cancelAccountDate(账户注销日期)</t>
-  </si>
-  <si>
-    <t>paymentType(付款方式：现金-0, 刷卡-1, 支票-2)</t>
-  </si>
-  <si>
-    <t>新增接口-setAccountNewBox</t>
+    <t>新增接口-openAccount/setAccountNewBox</t>
   </si>
   <si>
     <t>租赁信息</t>
@@ -428,7 +428,7 @@
     <t>accountId(账户id)</t>
   </si>
   <si>
-    <t>新增接口-setAccountNewCustomer</t>
+    <t>新增接口-openAccount/setAccountNewCustomer</t>
   </si>
   <si>
     <t>客户信息</t>
@@ -443,7 +443,7 @@
     <t>续租</t>
   </si>
   <si>
-    <t>接口5-getBoxReletInfo</t>
+    <t>接口5-rent/getBoxDetails</t>
   </si>
   <si>
     <t xml:space="preserve">id 租赁ID </t>
@@ -455,7 +455,7 @@
     <t>overdueRent滞纳租金</t>
   </si>
   <si>
-    <t>接口6-setBoxReletInfo</t>
+    <t>接口6-rent/setBoxReletInfo</t>
   </si>
   <si>
     <t>id 租赁ID</t>
@@ -476,7 +476,7 @@
     <t>退租</t>
   </si>
   <si>
-    <t>接口7-getBoxUnrentInfo</t>
+    <t>接口7-rent/getBoxUnrentInfo</t>
   </si>
   <si>
     <t xml:space="preserve">rentId 租赁ID </t>
@@ -497,7 +497,7 @@
     <t>keyFee 单把钥匙费用</t>
   </si>
   <si>
-    <t>接口8-setBoxUnrentInfo</t>
+    <t>接口8-rent/setBoxUnrentInfo</t>
   </si>
   <si>
     <t>rentId 租赁ID</t>
@@ -518,7 +518,7 @@
     <t>修改密码</t>
   </si>
   <si>
-    <t>接口9-modifyCardPwd</t>
+    <t>接口9-modify/modifyCardPwd</t>
   </si>
   <si>
     <t>cardRfid 卡号</t>
@@ -530,7 +530,7 @@
     <t>修改资料</t>
   </si>
   <si>
-    <t>接口10-getCustomerData</t>
+    <t>接口10-modify/getCustomerData</t>
   </si>
   <si>
     <t>certificateType(1-身份证 2-RFID)
@@ -544,13 +544,13 @@
     <t>openAccountDate 开户日期</t>
   </si>
   <si>
-    <t>接口11-setCustomerData</t>
+    <t>接口11-modify/setCustomerData</t>
   </si>
   <si>
     <t>换箱</t>
   </si>
   <si>
-    <t>接口12-getChangeBoxDetails</t>
+    <t>接口12-modify/getChangeBoxDetails</t>
   </si>
   <si>
     <t>oldBoxId 旧箱箱号</t>
@@ -565,7 +565,7 @@
     <t>amountDifference 差价金额</t>
   </si>
   <si>
-    <t>接口13-setChangeBoxDetails</t>
+    <t>接口13-modify/setChangeBoxDetails</t>
   </si>
   <si>
     <t>联合开户时这两个字段无意义</t>
@@ -577,7 +577,7 @@
     <t>挂失</t>
   </si>
   <si>
-    <t>接口14-bankEmployeeLogin</t>
+    <t>接口14-reportLoss/bankEmployeeLogin</t>
   </si>
   <si>
     <t>bankEmployeeID(银行管理员ID)</t>
@@ -586,7 +586,7 @@
     <t>bankEmployeePwd(银行管理员密码)</t>
   </si>
   <si>
-    <t>接口15-setReportLossApply</t>
+    <t>接口15-reportLoss/setReportLossApply</t>
   </si>
   <si>
     <t>CardNum卡号</t>
@@ -604,7 +604,7 @@
     <t>reportLossType 挂失类型 (密码丢失-1,卡挂失-2,钥匙丢失-3)</t>
   </si>
   <si>
-    <t>接口16-setReportLossDetails</t>
+    <t>接口16-reportLoss/setReportLossDetails</t>
   </si>
   <si>
     <t>certificateType(1-身份证 2-RFID)</t>
@@ -619,7 +619,7 @@
     <t>password 密码</t>
   </si>
   <si>
-    <t>接口17-removeReportLossState</t>
+    <t>接口17-reportLoss/removeReportLossState</t>
   </si>
   <si>
     <t>见接口十六的备注</t>
@@ -643,7 +643,7 @@
     <t>冻结</t>
   </si>
   <si>
-    <t>freezeBox</t>
+    <t>specialService/freezeBox</t>
   </si>
   <si>
     <t>freezeReason冻结原因</t>
@@ -655,7 +655,7 @@
     <t>解冻</t>
   </si>
   <si>
-    <t>unfreezeBox</t>
+    <t>specialService/unfreezeBox</t>
   </si>
   <si>
     <t>unfreezeRemark解冻原因</t>
@@ -670,7 +670,7 @@
     <t>接口20</t>
   </si>
   <si>
-    <t>listAllMessages</t>
+    <t>systemConfig/listAllMessages</t>
   </si>
   <si>
     <t>NULL</t>
@@ -691,7 +691,7 @@
     <t>获取该分行所有雇员</t>
   </si>
   <si>
-    <t>listBankBranchEmployees</t>
+    <t>systemConfig/listBankBranchEmployees</t>
   </si>
   <si>
     <t>bankId 网点ID</t>
@@ -709,7 +709,7 @@
     <t>编辑/新增消息</t>
   </si>
   <si>
-    <t>setMessageDetails</t>
+    <t>systemConfig/setMessageDetails</t>
   </si>
   <si>
     <t>messageId 消息ID (0-新增，非0-编辑)</t>
@@ -734,7 +734,7 @@
     <t>删除消息</t>
   </si>
   <si>
-    <t>deleteMessage</t>
+    <t>systemConfig/deleteMessage</t>
   </si>
   <si>
     <t>messageIds 消息ID（列表）</t>
@@ -746,7 +746,7 @@
     <t>接口24</t>
   </si>
   <si>
-    <t>listBankBranches</t>
+    <t>systemConfig/listBankBranches</t>
   </si>
   <si>
     <t>bankTitle 网点名称</t>
@@ -758,7 +758,7 @@
     <t>编辑/新增网点</t>
   </si>
   <si>
-    <t>setBankDetails</t>
+    <t>systemConfig/setBankDetails</t>
   </si>
   <si>
     <t>bankId 网点ID (0-新增，非0-编辑)</t>
@@ -770,7 +770,7 @@
     <t>删除网点</t>
   </si>
   <si>
-    <t>deleteBank</t>
+    <t>systemConfig/deleteBank</t>
   </si>
   <si>
     <t>bankIds 网点ID（列表）</t>
@@ -782,7 +782,7 @@
     <t>接口27</t>
   </si>
   <si>
-    <t>listAllSubjects</t>
+    <t>systemConfig/listAllSubjects</t>
   </si>
   <si>
     <t>subjectId 科目ID</t>
@@ -803,7 +803,7 @@
     <t>编辑/新增科目</t>
   </si>
   <si>
-    <t>setSubjectDetails</t>
+    <t>systemConfig/setSubjectDetails</t>
   </si>
   <si>
     <t>subjectId 科目ID（0-新增，非0-编辑）</t>
@@ -818,7 +818,7 @@
     <t>删除科目</t>
   </si>
   <si>
-    <t>deleteSubject</t>
+    <t>systemConfig/deleteSubject</t>
   </si>
   <si>
     <t>subjectIds 科目ID（列表）</t>
@@ -834,7 +834,7 @@
     <t>保管箱型设置</t>
   </si>
   <si>
-    <t>listAllModelResumes</t>
+    <t>systemConfig/listAllModelResumes</t>
   </si>
   <si>
     <t>boxModelNo 箱型编号</t>
@@ -849,7 +849,7 @@
     <t>编辑/新增保管箱型</t>
   </si>
   <si>
-    <t>setBoxModelResumes</t>
+    <t>systemConfig/setBoxModelResumes</t>
   </si>
   <si>
     <t>boxModelNo 箱型编号（前端输入）</t>
@@ -861,7 +861,7 @@
     <t>删除保管箱型</t>
   </si>
   <si>
-    <t>deleteBoxModel</t>
+    <t>systemConfig/deleteBoxModel</t>
   </si>
   <si>
     <t>boxModels 箱型（列表）</t>
@@ -877,7 +877,7 @@
     <t>箱型费用设置</t>
   </si>
   <si>
-    <t>listAllBoxModels</t>
+    <t>systemConfig/listAllBoxModels</t>
   </si>
   <si>
     <t>boxModel 箱型名称</t>
@@ -910,7 +910,7 @@
     <t>编辑/新增箱型费用</t>
   </si>
   <si>
-    <t>setBoxModelDetails</t>
+    <t>systemConfig/setBoxModelDetails</t>
   </si>
   <si>
     <t>接口35</t>
@@ -928,7 +928,7 @@
     <t>接口36</t>
   </si>
   <si>
-    <t>listAllBankEmployees</t>
+    <t>systemConfig/listAllBankEmployees</t>
   </si>
   <si>
     <t>employeeId 银行职员ID</t>
@@ -958,7 +958,7 @@
     <t>编辑/新增用户</t>
   </si>
   <si>
-    <t>setBankEmployeeDetails</t>
+    <t>systemConfig/setBankEmployeeDetails</t>
   </si>
   <si>
     <t>employeeId 银行职员ID（0-新增，非0-编辑）</t>
@@ -976,7 +976,7 @@
     <t>删除用户</t>
   </si>
   <si>
-    <t>deleteBankEmployee</t>
+    <t>systemConfig/deleteBankEmployee</t>
   </si>
   <si>
     <t>bankEmployeeIds 银行职员ID（列表）</t>
@@ -988,7 +988,7 @@
     <t>接口39</t>
   </si>
   <si>
-    <t>listAllFeeTypes</t>
+    <t>systemConfig/listAllFeeTypes</t>
   </si>
   <si>
     <t>feeTypeId 费用类型ID</t>
@@ -1012,7 +1012,7 @@
     <t>编辑/新增费用</t>
   </si>
   <si>
-    <t>setFeeTypeDetails</t>
+    <t>systemConfig/setFeeTypeDetails</t>
   </si>
   <si>
     <t>feeTypeId 费用类型ID（前端输入）</t>
@@ -1027,7 +1027,7 @@
     <t>禁用/启用费用</t>
   </si>
   <si>
-    <t>operateFeeType</t>
+    <t>systemConfig/operateFeeType</t>
   </si>
   <si>
     <t>status（0-启用，1-禁用）</t>
@@ -1039,7 +1039,7 @@
     <t>删除费用</t>
   </si>
   <si>
-    <t>deleteFeeType</t>
+    <t>systemConfig/deleteFeeType</t>
   </si>
   <si>
     <t>feeTypeIds 费用类型ID（列表）</t>
@@ -1050,10 +1050,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1143,24 +1143,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1197,6 +1181,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1220,6 +1227,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,42 +1275,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,13 +1320,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,31 +1386,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,55 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,7 +1464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,19 +1488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,12 +1500,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1790,26 +1790,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1988,26 +1968,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2031,6 +1991,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2039,10 +2019,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2051,137 +2031,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2494,12 +2474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2533,22 +2507,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2584,24 +2558,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2614,22 +2570,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2981,21 +2943,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="47.375" customWidth="1"/>
     <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:7">
+    <row r="1" ht="21" spans="1:8">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
@@ -3012,6 +2976,9 @@
       <c r="F1" s="3"/>
       <c r="G1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="H1" s="136" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:6">
@@ -3022,44 +2989,592 @@
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="145" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="B3" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="146" t="s">
+      <c r="C3" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="29" t="s">
+      <c r="D3" s="106"/>
+      <c r="E3" s="139" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="26" customHeight="1" spans="1:7">
-      <c r="A4" s="144"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="36"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="1:8">
+      <c r="A4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="58"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="67"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="58"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="58"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="58"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="58"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="58"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="58"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="58"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="58"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="58"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="58"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="58"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="58"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="58"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="58"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="58"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="58"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="58"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="67"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="58"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="67"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="35"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="58"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="58"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="58"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="58"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="58"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="67"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="35"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="58"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="35"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="58"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="67"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="58"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="58"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="67"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="58"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="67"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="58"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="58"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="58"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="67"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="35"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="58"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="35"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="58"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="67"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="35"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="58"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="67"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="35"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="58"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="67"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="35"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="58"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="67"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="35"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="58"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="67"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="35"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="58"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="67"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="35"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:8">
+      <c r="A47" s="73"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="51"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="54">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A47"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B7:B47"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H7:H47"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:F4"/>
+    <mergeCell ref="C7:D47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3069,17 +3584,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:D94"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="49.875" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="105" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="103" customWidth="1"/>
     <col min="5" max="5" width="25.375" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="20.625" customWidth="1"/>
@@ -3102,10 +3617,10 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" s="101" customFormat="1" ht="31" customHeight="1" spans="1:7">
@@ -3118,63 +3633,63 @@
       <c r="G2" s="45"/>
     </row>
     <row r="3" s="102" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A3" s="106" t="s">
-        <v>11</v>
+      <c r="A3" s="104" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="108"/>
+        <v>55</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="106"/>
       <c r="E3" s="48" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="109" t="s">
-        <v>9</v>
+      <c r="H3" s="107" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="102" customFormat="1" spans="1:8">
-      <c r="A4" s="110"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="66" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
-      <c r="H4" s="113"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" s="102" customFormat="1" spans="1:8">
-      <c r="A5" s="110"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="66" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
-      <c r="H5" s="113"/>
+      <c r="H5" s="111"/>
     </row>
     <row r="6" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A6" s="110"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="50" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="116"/>
+      <c r="H6" s="114"/>
     </row>
     <row r="7" s="102" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A7" s="110"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
@@ -3183,28 +3698,28 @@
       <c r="G7" s="72"/>
     </row>
     <row r="8" s="102" customFormat="1" spans="1:8">
-      <c r="A8" s="110"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
       <c r="H8" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" s="102" customFormat="1" spans="1:8">
-      <c r="A9" s="110"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="9"/>
       <c r="C9" s="66" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="66"/>
@@ -3213,10 +3728,10 @@
       <c r="H9" s="30"/>
     </row>
     <row r="10" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A10" s="110"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="11"/>
       <c r="C10" s="50" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="50"/>
@@ -3225,7 +3740,7 @@
       <c r="H10" s="31"/>
     </row>
     <row r="11" s="102" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A11" s="110"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -3234,165 +3749,165 @@
       <c r="G11" s="53"/>
     </row>
     <row r="12" s="102" customFormat="1" spans="1:8">
-      <c r="A12" s="110"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D12" s="49"/>
-      <c r="E12" s="117" t="s">
-        <v>23</v>
+      <c r="E12" s="115" t="s">
+        <v>63</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G12" s="25"/>
-      <c r="H12" s="109" t="s">
-        <v>9</v>
+      <c r="H12" s="107" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" s="102" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A13" s="110"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="9"/>
       <c r="C13" s="66"/>
       <c r="D13" s="67"/>
-      <c r="E13" s="118" t="s">
-        <v>25</v>
+      <c r="E13" s="116" t="s">
+        <v>65</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G13" s="70"/>
-      <c r="H13" s="119"/>
+      <c r="H13" s="117"/>
     </row>
     <row r="14" s="102" customFormat="1" spans="1:8">
-      <c r="A14" s="110"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="9"/>
       <c r="C14" s="66"/>
       <c r="D14" s="67"/>
-      <c r="E14" s="120" t="s">
-        <v>27</v>
+      <c r="E14" s="118" t="s">
+        <v>67</v>
       </c>
       <c r="F14" s="81" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G14" s="81"/>
-      <c r="H14" s="119"/>
+      <c r="H14" s="117"/>
     </row>
     <row r="15" s="102" customFormat="1" spans="1:8">
-      <c r="A15" s="110"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="9"/>
       <c r="C15" s="66"/>
       <c r="D15" s="67"/>
-      <c r="E15" s="120" t="s">
-        <v>29</v>
+      <c r="E15" s="118" t="s">
+        <v>69</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G15" s="67"/>
-      <c r="H15" s="119"/>
+      <c r="H15" s="117"/>
     </row>
     <row r="16" s="102" customFormat="1" spans="1:8">
-      <c r="A16" s="110"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="9"/>
       <c r="C16" s="66"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="120" t="s">
-        <v>31</v>
+      <c r="E16" s="118" t="s">
+        <v>71</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G16" s="67"/>
-      <c r="H16" s="119"/>
+      <c r="H16" s="117"/>
     </row>
     <row r="17" s="102" customFormat="1" spans="1:8">
-      <c r="A17" s="110"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="9"/>
       <c r="C17" s="66"/>
       <c r="D17" s="67"/>
-      <c r="E17" s="120" t="s">
-        <v>33</v>
+      <c r="E17" s="118" t="s">
+        <v>73</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G17" s="67"/>
-      <c r="H17" s="119"/>
+      <c r="H17" s="117"/>
     </row>
     <row r="18" s="102" customFormat="1" spans="1:8">
-      <c r="A18" s="110"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="9"/>
       <c r="C18" s="66"/>
       <c r="D18" s="67"/>
-      <c r="E18" s="120" t="s">
-        <v>32</v>
+      <c r="E18" s="118" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="G18" s="67"/>
-      <c r="H18" s="119"/>
+      <c r="H18" s="117"/>
     </row>
     <row r="19" s="102" customFormat="1" spans="1:8">
-      <c r="A19" s="110"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="9"/>
       <c r="C19" s="66"/>
       <c r="D19" s="67"/>
-      <c r="E19" s="120" t="s">
-        <v>34</v>
+      <c r="E19" s="118" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="G19" s="67"/>
-      <c r="H19" s="119"/>
+      <c r="H19" s="117"/>
     </row>
     <row r="20" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A20" s="110"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="9"/>
       <c r="C20" s="66"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="121" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="121"/>
-      <c r="H20" s="119"/>
+      <c r="E20" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="119"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A21" s="110"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="9"/>
       <c r="C21" s="66"/>
       <c r="D21" s="67"/>
-      <c r="E21" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="121"/>
-      <c r="H21" s="119"/>
+      <c r="E21" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="119"/>
+      <c r="H21" s="117"/>
     </row>
     <row r="22" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A22" s="110"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="11"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
-      <c r="E22" s="122"/>
+      <c r="E22" s="120"/>
       <c r="F22" s="51" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G22" s="51"/>
-      <c r="H22" s="123"/>
+      <c r="H22" s="121"/>
     </row>
     <row r="23" s="102" customFormat="1" ht="29" customHeight="1" spans="1:8">
-      <c r="A23" s="110"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
@@ -3402,1409 +3917,899 @@
       <c r="H23" s="53"/>
     </row>
     <row r="24" s="102" customFormat="1" spans="1:8">
-      <c r="A24" s="110"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="125" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="C24" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="123" t="s">
+        <v>81</v>
       </c>
       <c r="E24" s="90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
-      <c r="H24" s="109" t="s">
-        <v>9</v>
+      <c r="H24" s="107" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A25" s="110"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="9"/>
       <c r="C25" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="126" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="D25" s="124" t="s">
+        <v>66</v>
       </c>
       <c r="E25" s="93"/>
       <c r="F25" s="67"/>
       <c r="G25" s="67"/>
-      <c r="H25" s="119"/>
+      <c r="H25" s="117"/>
     </row>
     <row r="26" s="102" customFormat="1" spans="1:8">
-      <c r="A26" s="110"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="9"/>
       <c r="C26" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="127" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="D26" s="125" t="s">
+        <v>68</v>
       </c>
       <c r="E26" s="93"/>
       <c r="F26" s="67"/>
       <c r="G26" s="67"/>
-      <c r="H26" s="119"/>
+      <c r="H26" s="117"/>
     </row>
     <row r="27" s="102" customFormat="1" spans="1:8">
-      <c r="A27" s="110"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="9"/>
       <c r="C27" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="128" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>83</v>
       </c>
       <c r="E27" s="93"/>
       <c r="F27" s="67"/>
       <c r="G27" s="67"/>
-      <c r="H27" s="119"/>
+      <c r="H27" s="117"/>
     </row>
     <row r="28" s="102" customFormat="1" spans="1:8">
-      <c r="A28" s="110"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="9"/>
       <c r="C28" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="128" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="D28" s="126" t="s">
+        <v>72</v>
       </c>
       <c r="E28" s="93"/>
       <c r="F28" s="67"/>
       <c r="G28" s="67"/>
-      <c r="H28" s="119"/>
+      <c r="H28" s="117"/>
     </row>
     <row r="29" s="102" customFormat="1" spans="1:8">
-      <c r="A29" s="110"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="9"/>
       <c r="C29" s="66" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E29" s="93"/>
       <c r="F29" s="67"/>
       <c r="G29" s="67"/>
-      <c r="H29" s="119"/>
+      <c r="H29" s="117"/>
     </row>
     <row r="30" s="102" customFormat="1" spans="1:8">
-      <c r="A30" s="110"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="9"/>
       <c r="C30" s="66" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E30" s="93"/>
       <c r="F30" s="67"/>
       <c r="G30" s="67"/>
-      <c r="H30" s="119"/>
+      <c r="H30" s="117"/>
     </row>
     <row r="31" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A31" s="110"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="9"/>
       <c r="C31" s="66" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E31" s="93"/>
       <c r="F31" s="67"/>
       <c r="G31" s="67"/>
-      <c r="H31" s="119"/>
+      <c r="H31" s="117"/>
     </row>
     <row r="32" s="102" customFormat="1" spans="1:8">
-      <c r="A32" s="110"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="124" t="s">
-        <v>23</v>
+      <c r="C32" s="122" t="s">
+        <v>63</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E32" s="93"/>
       <c r="F32" s="67"/>
       <c r="G32" s="67"/>
-      <c r="H32" s="119"/>
+      <c r="H32" s="117"/>
     </row>
     <row r="33" s="102" customFormat="1" spans="1:8">
-      <c r="A33" s="110"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="129" t="s">
-        <v>53</v>
+      <c r="C33" s="127" t="s">
+        <v>88</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E33" s="93"/>
       <c r="F33" s="67"/>
       <c r="G33" s="67"/>
-      <c r="H33" s="119"/>
+      <c r="H33" s="117"/>
     </row>
     <row r="34" s="102" customFormat="1" ht="27" spans="1:8">
-      <c r="A34" s="110"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="9"/>
       <c r="C34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="130" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="D34" s="128" t="s">
+        <v>90</v>
       </c>
       <c r="E34" s="93"/>
       <c r="F34" s="67"/>
       <c r="G34" s="67"/>
-      <c r="H34" s="119"/>
+      <c r="H34" s="117"/>
     </row>
     <row r="35" s="102" customFormat="1" spans="1:8">
-      <c r="A35" s="110"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="9"/>
       <c r="C35" s="66" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E35" s="93"/>
       <c r="F35" s="67"/>
       <c r="G35" s="67"/>
-      <c r="H35" s="119"/>
+      <c r="H35" s="117"/>
     </row>
     <row r="36" s="102" customFormat="1" spans="1:8">
-      <c r="A36" s="110"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="9"/>
       <c r="C36" s="66" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E36" s="93"/>
       <c r="F36" s="67"/>
       <c r="G36" s="67"/>
-      <c r="H36" s="119"/>
+      <c r="H36" s="117"/>
     </row>
     <row r="37" s="102" customFormat="1" spans="1:8">
-      <c r="A37" s="110"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="9"/>
       <c r="C37" s="66" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E37" s="93"/>
       <c r="F37" s="67"/>
       <c r="G37" s="67"/>
-      <c r="H37" s="119"/>
+      <c r="H37" s="117"/>
     </row>
     <row r="38" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A38" s="110"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="9"/>
       <c r="C38" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="131" t="s">
-        <v>61</v>
+        <v>95</v>
+      </c>
+      <c r="D38" s="129" t="s">
+        <v>96</v>
       </c>
       <c r="E38" s="93"/>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
-      <c r="H38" s="119"/>
+      <c r="H38" s="117"/>
     </row>
     <row r="39" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A39" s="110"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="9"/>
       <c r="C39" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="131" t="s">
-        <v>63</v>
+        <v>97</v>
+      </c>
+      <c r="D39" s="129" t="s">
+        <v>98</v>
       </c>
       <c r="E39" s="93"/>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
-      <c r="H39" s="119"/>
+      <c r="H39" s="117"/>
     </row>
     <row r="40" s="102" customFormat="1" spans="1:8">
-      <c r="A40" s="110"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="9"/>
       <c r="C40" s="66" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E40" s="93"/>
       <c r="F40" s="67"/>
       <c r="G40" s="67"/>
-      <c r="H40" s="119"/>
+      <c r="H40" s="117"/>
     </row>
     <row r="41" s="102" customFormat="1" spans="1:8">
-      <c r="A41" s="110"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="9"/>
       <c r="C41" s="66" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E41" s="93"/>
       <c r="F41" s="67"/>
       <c r="G41" s="67"/>
-      <c r="H41" s="119"/>
+      <c r="H41" s="117"/>
     </row>
     <row r="42" s="102" customFormat="1" spans="1:8">
-      <c r="A42" s="110"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="9"/>
       <c r="C42" s="66" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E42" s="93"/>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
-      <c r="H42" s="119"/>
+      <c r="H42" s="117"/>
     </row>
     <row r="43" s="102" customFormat="1" spans="1:8">
-      <c r="A43" s="110"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="9"/>
       <c r="C43" s="66" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E43" s="93"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
-      <c r="H43" s="119"/>
+      <c r="H43" s="117"/>
     </row>
     <row r="44" s="102" customFormat="1" spans="1:8">
-      <c r="A44" s="110"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="9"/>
       <c r="C44" s="66" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="93"/>
       <c r="F44" s="67"/>
       <c r="G44" s="67"/>
-      <c r="H44" s="119"/>
+      <c r="H44" s="117"/>
     </row>
     <row r="45" s="102" customFormat="1" spans="1:8">
-      <c r="A45" s="110"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="132" t="s">
-        <v>72</v>
+      <c r="C45" s="130" t="s">
+        <v>107</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="93"/>
       <c r="F45" s="67"/>
       <c r="G45" s="67"/>
-      <c r="H45" s="119"/>
+      <c r="H45" s="117"/>
     </row>
     <row r="46" s="102" customFormat="1" spans="1:8">
-      <c r="A46" s="110"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="129" t="s">
-        <v>73</v>
+      <c r="C46" s="127" t="s">
+        <v>108</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="93"/>
       <c r="F46" s="67"/>
       <c r="G46" s="67"/>
-      <c r="H46" s="119"/>
+      <c r="H46" s="117"/>
     </row>
     <row r="47" s="102" customFormat="1" spans="1:8">
-      <c r="A47" s="110"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="9"/>
       <c r="C47" s="66" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="93"/>
       <c r="F47" s="67"/>
       <c r="G47" s="67"/>
-      <c r="H47" s="119"/>
+      <c r="H47" s="117"/>
     </row>
     <row r="48" s="102" customFormat="1" spans="1:8">
-      <c r="A48" s="110"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="9"/>
       <c r="C48" s="66" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="93"/>
       <c r="F48" s="67"/>
       <c r="G48" s="67"/>
-      <c r="H48" s="119"/>
+      <c r="H48" s="117"/>
     </row>
     <row r="49" s="102" customFormat="1" spans="1:8">
-      <c r="A49" s="110"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="9"/>
       <c r="C49" s="66" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="93"/>
       <c r="F49" s="67"/>
       <c r="G49" s="67"/>
-      <c r="H49" s="119"/>
+      <c r="H49" s="117"/>
     </row>
     <row r="50" s="102" customFormat="1" spans="1:8">
-      <c r="A50" s="110"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="9"/>
       <c r="C50" s="66" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="93"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
-      <c r="H50" s="119"/>
+      <c r="H50" s="117"/>
     </row>
     <row r="51" s="102" customFormat="1" spans="1:8">
-      <c r="A51" s="110"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="9"/>
       <c r="C51" s="66" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="93"/>
       <c r="F51" s="67"/>
       <c r="G51" s="67"/>
-      <c r="H51" s="119"/>
+      <c r="H51" s="117"/>
     </row>
     <row r="52" s="102" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A52" s="133"/>
+      <c r="A52" s="131"/>
       <c r="B52" s="11"/>
       <c r="C52" s="50" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="96"/>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
-      <c r="H52" s="123"/>
-    </row>
-    <row r="53" s="103" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A53" s="134"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="102"/>
-    </row>
-    <row r="54" s="104" customFormat="1" spans="1:8">
+      <c r="H52" s="121"/>
+    </row>
+    <row r="53" ht="25" customHeight="1"/>
+    <row r="54" ht="25" customHeight="1" spans="1:8">
       <c r="A54" s="56" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" s="25"/>
+        <v>113</v>
+      </c>
+      <c r="C54" s="132" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="47"/>
+      <c r="E54" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="49"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:8">
       <c r="A55" s="58"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="66" t="s">
-        <v>81</v>
-      </c>
+      <c r="C55" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="70"/>
+      <c r="E55" s="66"/>
       <c r="F55" s="67"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="138"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55" s="35"/>
+    </row>
+    <row r="56" ht="14.25" spans="1:8">
       <c r="A56" s="58"/>
       <c r="B56" s="23"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="66" t="s">
-        <v>82</v>
-      </c>
+      <c r="C56" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="70"/>
+      <c r="E56" s="66"/>
       <c r="F56" s="67"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="138"/>
-    </row>
-    <row r="57" s="104" customFormat="1" spans="1:8">
+      <c r="H56" s="35"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="58"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="66"/>
+      <c r="C57" s="66" t="s">
+        <v>13</v>
+      </c>
       <c r="D57" s="67"/>
-      <c r="E57" s="66" t="s">
-        <v>83</v>
-      </c>
+      <c r="E57" s="66"/>
       <c r="F57" s="67"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="138"/>
+      <c r="H57" s="35"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="58"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="66"/>
+      <c r="C58" s="66" t="s">
+        <v>85</v>
+      </c>
       <c r="D58" s="67"/>
-      <c r="E58" s="66" t="s">
-        <v>84</v>
-      </c>
+      <c r="E58" s="66"/>
       <c r="F58" s="67"/>
       <c r="G58" s="17"/>
-      <c r="H58" s="138"/>
+      <c r="H58" s="35"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="58"/>
       <c r="B59" s="23"/>
-      <c r="C59" s="66"/>
+      <c r="C59" s="66" t="s">
+        <v>86</v>
+      </c>
       <c r="D59" s="67"/>
-      <c r="E59" s="66" t="s">
-        <v>85</v>
-      </c>
+      <c r="E59" s="66"/>
       <c r="F59" s="67"/>
       <c r="G59" s="17"/>
-      <c r="H59" s="138"/>
+      <c r="H59" s="35"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="58"/>
       <c r="B60" s="23"/>
-      <c r="C60" s="66"/>
+      <c r="C60" s="66" t="s">
+        <v>87</v>
+      </c>
       <c r="D60" s="67"/>
-      <c r="E60" s="66" t="s">
-        <v>86</v>
-      </c>
+      <c r="E60" s="66"/>
       <c r="F60" s="67"/>
       <c r="G60" s="17"/>
-      <c r="H60" s="138"/>
+      <c r="H60" s="35"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="58"/>
       <c r="B61" s="23"/>
-      <c r="C61" s="66"/>
+      <c r="C61" s="66" t="s">
+        <v>89</v>
+      </c>
       <c r="D61" s="67"/>
-      <c r="E61" s="66" t="s">
-        <v>87</v>
-      </c>
+      <c r="E61" s="66"/>
       <c r="F61" s="67"/>
       <c r="G61" s="17"/>
-      <c r="H61" s="138"/>
+      <c r="H61" s="35"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="58"/>
       <c r="B62" s="23"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="66" t="s">
-        <v>88</v>
-      </c>
+      <c r="C62" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="67"/>
       <c r="G62" s="17"/>
-      <c r="H62" s="138"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="58"/>
       <c r="B63" s="23"/>
-      <c r="C63" s="66"/>
+      <c r="C63" s="66" t="s">
+        <v>92</v>
+      </c>
       <c r="D63" s="67"/>
-      <c r="E63" s="66" t="s">
-        <v>89</v>
-      </c>
+      <c r="E63" s="66"/>
       <c r="F63" s="67"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="138"/>
+      <c r="H63" s="35"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="58"/>
       <c r="B64" s="23"/>
-      <c r="C64" s="66"/>
+      <c r="C64" s="66" t="s">
+        <v>93</v>
+      </c>
       <c r="D64" s="67"/>
-      <c r="E64" s="66" t="s">
-        <v>90</v>
-      </c>
+      <c r="E64" s="66"/>
       <c r="F64" s="67"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="138"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="58"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="66"/>
+      <c r="C65" s="66" t="s">
+        <v>94</v>
+      </c>
       <c r="D65" s="67"/>
-      <c r="E65" s="66" t="s">
-        <v>91</v>
-      </c>
+      <c r="E65" s="66"/>
       <c r="F65" s="67"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="138"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="H65" s="35"/>
+    </row>
+    <row r="66" ht="14.25" spans="1:8">
       <c r="A66" s="58"/>
       <c r="B66" s="23"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="66" t="s">
-        <v>92</v>
-      </c>
+      <c r="C66" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="119"/>
+      <c r="E66" s="66"/>
       <c r="F66" s="67"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="138"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" ht="14.25" spans="1:8">
       <c r="A67" s="58"/>
       <c r="B67" s="23"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="66" t="s">
-        <v>93</v>
-      </c>
+      <c r="C67" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="119"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="67"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="138"/>
+      <c r="H67" s="35"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="58"/>
       <c r="B68" s="23"/>
-      <c r="C68" s="66"/>
+      <c r="C68" s="66" t="s">
+        <v>100</v>
+      </c>
       <c r="D68" s="67"/>
-      <c r="E68" s="66" t="s">
-        <v>94</v>
-      </c>
+      <c r="E68" s="66"/>
       <c r="F68" s="67"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="138"/>
+      <c r="H68" s="35"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="58"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="66"/>
+      <c r="C69" s="66" t="s">
+        <v>101</v>
+      </c>
       <c r="D69" s="67"/>
-      <c r="E69" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" s="26"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="67"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="138"/>
+      <c r="H69" s="35"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="58"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="66"/>
+      <c r="C70" s="66" t="s">
+        <v>103</v>
+      </c>
       <c r="D70" s="67"/>
-      <c r="E70" s="66" t="s">
-        <v>96</v>
-      </c>
+      <c r="E70" s="66"/>
       <c r="F70" s="67"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="138"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="58"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="67"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="138"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="58"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72" s="67"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="138"/>
-    </row>
+      <c r="A71" s="73"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" s="51"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="36"/>
+    </row>
+    <row r="72" ht="27" customHeight="1"/>
     <row r="73" spans="1:8">
-      <c r="A73" s="58"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="67"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="138"/>
+      <c r="A73" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="49"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="33" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="58"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="66" t="s">
-        <v>100</v>
-      </c>
+      <c r="C74" s="134" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="135"/>
+      <c r="E74" s="66"/>
       <c r="F74" s="67"/>
       <c r="G74" s="17"/>
-      <c r="H74" s="138"/>
+      <c r="H74" s="35"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="58"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="66" t="s">
-        <v>101</v>
-      </c>
+      <c r="C75" s="127" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="135"/>
+      <c r="E75" s="66"/>
       <c r="F75" s="67"/>
       <c r="G75" s="17"/>
-      <c r="H75" s="138"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="58"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="66" t="s">
-        <v>102</v>
-      </c>
+      <c r="C76" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="81"/>
+      <c r="E76" s="66"/>
       <c r="F76" s="67"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="138"/>
+      <c r="H76" s="35"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="58"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="66"/>
+      <c r="C77" s="66" t="s">
+        <v>91</v>
+      </c>
       <c r="D77" s="67"/>
-      <c r="E77" s="66" t="s">
-        <v>103</v>
-      </c>
+      <c r="E77" s="66"/>
       <c r="F77" s="67"/>
       <c r="G77" s="17"/>
-      <c r="H77" s="138"/>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="58"/>
       <c r="B78" s="23"/>
-      <c r="C78" s="66"/>
+      <c r="C78" s="66" t="s">
+        <v>69</v>
+      </c>
       <c r="D78" s="67"/>
-      <c r="E78" s="66" t="s">
-        <v>104</v>
-      </c>
+      <c r="E78" s="66"/>
       <c r="F78" s="67"/>
       <c r="G78" s="17"/>
-      <c r="H78" s="138"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="58"/>
       <c r="B79" s="23"/>
-      <c r="C79" s="66"/>
+      <c r="C79" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="D79" s="67"/>
-      <c r="E79" s="66" t="s">
-        <v>105</v>
-      </c>
+      <c r="E79" s="66"/>
       <c r="F79" s="67"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="138"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="58"/>
       <c r="B80" s="23"/>
-      <c r="C80" s="66"/>
+      <c r="C80" s="66" t="s">
+        <v>95</v>
+      </c>
       <c r="D80" s="67"/>
-      <c r="E80" s="66" t="s">
-        <v>106</v>
-      </c>
+      <c r="E80" s="66"/>
       <c r="F80" s="67"/>
       <c r="G80" s="17"/>
-      <c r="H80" s="138"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="58"/>
       <c r="B81" s="23"/>
-      <c r="C81" s="66"/>
+      <c r="C81" s="66" t="s">
+        <v>97</v>
+      </c>
       <c r="D81" s="67"/>
-      <c r="E81" s="66" t="s">
-        <v>16</v>
-      </c>
+      <c r="E81" s="66"/>
       <c r="F81" s="67"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="138"/>
+      <c r="H81" s="35"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="58"/>
       <c r="B82" s="23"/>
-      <c r="C82" s="66"/>
+      <c r="C82" s="66" t="s">
+        <v>99</v>
+      </c>
       <c r="D82" s="67"/>
-      <c r="E82" s="66" t="s">
-        <v>107</v>
-      </c>
+      <c r="E82" s="66"/>
       <c r="F82" s="67"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="138"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="58"/>
       <c r="B83" s="23"/>
-      <c r="C83" s="66"/>
+      <c r="C83" s="66" t="s">
+        <v>73</v>
+      </c>
       <c r="D83" s="67"/>
-      <c r="E83" s="66" t="s">
-        <v>108</v>
-      </c>
+      <c r="E83" s="66"/>
       <c r="F83" s="67"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="138"/>
+      <c r="H83" s="35"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="58"/>
       <c r="B84" s="23"/>
-      <c r="C84" s="66"/>
+      <c r="C84" s="66" t="s">
+        <v>102</v>
+      </c>
       <c r="D84" s="67"/>
-      <c r="E84" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="F84" s="26"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="67"/>
       <c r="G84" s="17"/>
-      <c r="H84" s="138"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="58"/>
       <c r="B85" s="23"/>
-      <c r="C85" s="66"/>
+      <c r="C85" s="66" t="s">
+        <v>104</v>
+      </c>
       <c r="D85" s="67"/>
-      <c r="E85" s="66" t="s">
-        <v>14</v>
-      </c>
+      <c r="E85" s="66"/>
       <c r="F85" s="67"/>
       <c r="G85" s="17"/>
-      <c r="H85" s="138"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="58"/>
       <c r="B86" s="23"/>
-      <c r="C86" s="66"/>
+      <c r="C86" s="66" t="s">
+        <v>106</v>
+      </c>
       <c r="D86" s="67"/>
-      <c r="E86" s="66" t="s">
-        <v>15</v>
-      </c>
+      <c r="E86" s="66"/>
       <c r="F86" s="67"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="138"/>
+      <c r="H86" s="35"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="58"/>
       <c r="B87" s="23"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="66" t="s">
-        <v>110</v>
-      </c>
+      <c r="C87" s="130" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="26"/>
+      <c r="E87" s="66"/>
       <c r="F87" s="67"/>
       <c r="G87" s="17"/>
-      <c r="H87" s="138"/>
+      <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="58"/>
       <c r="B88" s="23"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="66" t="s">
-        <v>111</v>
-      </c>
+      <c r="C88" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="135"/>
+      <c r="E88" s="66"/>
       <c r="F88" s="67"/>
       <c r="G88" s="17"/>
-      <c r="H88" s="138"/>
+      <c r="H88" s="35"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="58"/>
       <c r="B89" s="23"/>
-      <c r="C89" s="66"/>
+      <c r="C89" s="66" t="s">
+        <v>109</v>
+      </c>
       <c r="D89" s="67"/>
-      <c r="E89" s="66" t="s">
-        <v>44</v>
-      </c>
+      <c r="E89" s="66"/>
       <c r="F89" s="67"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="138"/>
+      <c r="H89" s="35"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="58"/>
       <c r="B90" s="23"/>
-      <c r="C90" s="66"/>
+      <c r="C90" s="66" t="s">
+        <v>72</v>
+      </c>
       <c r="D90" s="67"/>
-      <c r="E90" s="66" t="s">
-        <v>46</v>
-      </c>
+      <c r="E90" s="66"/>
       <c r="F90" s="67"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="138"/>
+      <c r="H90" s="35"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="58"/>
       <c r="B91" s="23"/>
-      <c r="C91" s="66"/>
+      <c r="C91" s="66" t="s">
+        <v>13</v>
+      </c>
       <c r="D91" s="67"/>
-      <c r="E91" s="66" t="s">
-        <v>112</v>
-      </c>
+      <c r="E91" s="66"/>
       <c r="F91" s="67"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="138"/>
+      <c r="H91" s="35"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="58"/>
       <c r="B92" s="23"/>
-      <c r="C92" s="66"/>
+      <c r="C92" s="66" t="s">
+        <v>110</v>
+      </c>
       <c r="D92" s="67"/>
-      <c r="E92" s="66" t="s">
-        <v>48</v>
-      </c>
+      <c r="E92" s="66"/>
       <c r="F92" s="67"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="138"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="58"/>
       <c r="B93" s="23"/>
-      <c r="C93" s="66"/>
+      <c r="C93" s="66" t="s">
+        <v>111</v>
+      </c>
       <c r="D93" s="67"/>
-      <c r="E93" s="66" t="s">
-        <v>50</v>
-      </c>
+      <c r="E93" s="66"/>
       <c r="F93" s="67"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="138"/>
-    </row>
-    <row r="94" ht="14.25" spans="1:8">
+      <c r="H93" s="35"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="73"/>
       <c r="B94" s="15"/>
-      <c r="C94" s="50"/>
+      <c r="C94" s="50" t="s">
+        <v>112</v>
+      </c>
       <c r="D94" s="51"/>
-      <c r="E94" s="50" t="s">
-        <v>16</v>
-      </c>
+      <c r="E94" s="50"/>
       <c r="F94" s="51"/>
       <c r="G94" s="16"/>
-      <c r="H94" s="139"/>
-    </row>
-    <row r="95" ht="25" customHeight="1"/>
-    <row r="96" ht="25" customHeight="1" spans="1:8">
-      <c r="A96" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C96" s="140" t="s">
-        <v>114</v>
-      </c>
-      <c r="D96" s="47"/>
-      <c r="E96" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="49"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" spans="1:8">
-      <c r="A97" s="58"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D97" s="70"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="138"/>
-    </row>
-    <row r="98" ht="14.25" spans="1:8">
-      <c r="A98" s="58"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" s="70"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="138"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="58"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" s="67"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="138"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="58"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="67"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="138"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="58"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D101" s="67"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="138"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="58"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D102" s="67"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="138"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="58"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D103" s="67"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="138"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="58"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D104" s="81"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="138"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="58"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D105" s="67"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="138"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="58"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="D106" s="67"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="138"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="58"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="67"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="138"/>
-    </row>
-    <row r="108" ht="14.25" spans="1:8">
-      <c r="A108" s="58"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="141" t="s">
-        <v>61</v>
-      </c>
-      <c r="D108" s="121"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="138"/>
-    </row>
-    <row r="109" ht="14.25" spans="1:8">
-      <c r="A109" s="58"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="141" t="s">
-        <v>63</v>
-      </c>
-      <c r="D109" s="121"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="138"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="58"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D110" s="67"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="138"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="58"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="D111" s="67"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="138"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="58"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D112" s="67"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="138"/>
-    </row>
-    <row r="113" ht="14.25" spans="1:8">
-      <c r="A113" s="73"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D113" s="51"/>
-      <c r="E113" s="50"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="139"/>
-    </row>
-    <row r="114" ht="27" customHeight="1"/>
-    <row r="115" spans="1:8">
-      <c r="A115" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="49"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="58"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="142" t="s">
-        <v>22</v>
-      </c>
-      <c r="D116" s="143"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="138"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="58"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="D117" s="143"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="138"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="58"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="81"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="138"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="58"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D119" s="67"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="138"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="58"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D120" s="67"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="138"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="58"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="D121" s="67"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="138"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="58"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D122" s="67"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="138"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="58"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D123" s="67"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="138"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="58"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D124" s="67"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="138"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="58"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D125" s="67"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="138"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="58"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D126" s="67"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="138"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="58"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="D127" s="67"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="138"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="58"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D128" s="67"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="138"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="58"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="D129" s="26"/>
-      <c r="E129" s="66"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="138"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="58"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="D130" s="143"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="138"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="58"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="D131" s="67"/>
-      <c r="E131" s="66"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="138"/>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="58"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D132" s="67"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="138"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="58"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D133" s="67"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="67"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="138"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="58"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D134" s="67"/>
-      <c r="E134" s="66"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="138"/>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="58"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="D135" s="67"/>
-      <c r="E135" s="66"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="138"/>
-    </row>
-    <row r="136" ht="14.25" spans="1:8">
-      <c r="A136" s="73"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D136" s="51"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="51"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="139"/>
+      <c r="H94" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="74">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -4818,112 +4823,67 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B23:H23"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
     <mergeCell ref="A3:A52"/>
-    <mergeCell ref="A54:A94"/>
-    <mergeCell ref="A96:A113"/>
-    <mergeCell ref="A115:A136"/>
+    <mergeCell ref="A54:A71"/>
+    <mergeCell ref="A73:A94"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B12:B22"/>
     <mergeCell ref="B24:B52"/>
-    <mergeCell ref="B54:B94"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="B115:B136"/>
+    <mergeCell ref="B54:B71"/>
+    <mergeCell ref="B73:B94"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H12:H22"/>
     <mergeCell ref="H24:H52"/>
-    <mergeCell ref="H54:H94"/>
-    <mergeCell ref="H96:H113"/>
-    <mergeCell ref="H115:H136"/>
+    <mergeCell ref="H54:H71"/>
+    <mergeCell ref="H73:H94"/>
     <mergeCell ref="C3:D6"/>
     <mergeCell ref="E8:F10"/>
     <mergeCell ref="C12:D22"/>
     <mergeCell ref="E24:F52"/>
-    <mergeCell ref="C54:D94"/>
-    <mergeCell ref="E96:F113"/>
-    <mergeCell ref="E115:F136"/>
+    <mergeCell ref="E54:F71"/>
+    <mergeCell ref="E73:F94"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4936,14 +4896,14 @@
   <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="22.25" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
@@ -4965,7 +4925,7 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:6">
@@ -4984,7 +4944,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
@@ -5033,7 +4993,7 @@
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="57"/>
@@ -5053,7 +5013,7 @@
       <c r="A9" s="58"/>
       <c r="B9" s="23"/>
       <c r="C9" s="66" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="66"/>
@@ -5064,7 +5024,7 @@
       <c r="A10" s="58"/>
       <c r="B10" s="23"/>
       <c r="C10" s="66" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="66"/>
@@ -5108,7 +5068,7 @@
       <c r="A14" s="58"/>
       <c r="B14" s="23"/>
       <c r="C14" s="66" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="66"/>
@@ -5119,7 +5079,7 @@
       <c r="A15" s="73"/>
       <c r="B15" s="15"/>
       <c r="C15" s="50" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="50"/>
@@ -5143,7 +5103,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48" t="s">
@@ -5239,7 +5199,7 @@
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="57"/>
@@ -5314,7 +5274,7 @@
       <c r="A32" s="58"/>
       <c r="B32" s="23"/>
       <c r="C32" s="66" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="66"/>
@@ -5325,7 +5285,7 @@
       <c r="A33" s="73"/>
       <c r="B33" s="15"/>
       <c r="C33" s="50" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D33" s="51"/>
       <c r="E33" s="50"/>
@@ -5390,14 +5350,14 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
@@ -5420,10 +5380,10 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="34" customHeight="1" spans="1:6">
@@ -5446,12 +5406,12 @@
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="57"/>
       <c r="H3" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:8">
@@ -5491,7 +5451,7 @@
       <c r="F6" s="49"/>
       <c r="G6" s="57"/>
       <c r="H6" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5500,7 +5460,7 @@
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
       <c r="E7" s="79" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="68"/>
@@ -5512,7 +5472,7 @@
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
       <c r="E8" s="66" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F8" s="67"/>
       <c r="G8" s="68"/>
@@ -5524,7 +5484,7 @@
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
       <c r="E9" s="66" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F9" s="67"/>
       <c r="G9" s="68"/>
@@ -5536,7 +5496,7 @@
       <c r="C10" s="79"/>
       <c r="D10" s="80"/>
       <c r="E10" s="66" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F10" s="67"/>
       <c r="G10" s="68"/>
@@ -5560,7 +5520,7 @@
       <c r="C12" s="79"/>
       <c r="D12" s="80"/>
       <c r="E12" s="66" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F12" s="67"/>
       <c r="G12" s="68"/>
@@ -5572,7 +5532,7 @@
       <c r="C13" s="79"/>
       <c r="D13" s="80"/>
       <c r="E13" s="66" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F13" s="67"/>
       <c r="G13" s="68"/>
@@ -5584,7 +5544,7 @@
       <c r="C14" s="79"/>
       <c r="D14" s="80"/>
       <c r="E14" s="66" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F14" s="67"/>
       <c r="G14" s="68"/>
@@ -5596,7 +5556,7 @@
       <c r="C15" s="79"/>
       <c r="D15" s="80"/>
       <c r="E15" s="66" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="68"/>
@@ -5608,7 +5568,7 @@
       <c r="C16" s="79"/>
       <c r="D16" s="80"/>
       <c r="E16" s="66" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F16" s="67"/>
       <c r="G16" s="68"/>
@@ -5620,7 +5580,7 @@
       <c r="C17" s="79"/>
       <c r="D17" s="80"/>
       <c r="E17" s="66" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="F17" s="67"/>
       <c r="G17" s="59"/>
@@ -5644,19 +5604,19 @@
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" s="67"/>
       <c r="G19" s="57"/>
       <c r="H19" s="85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="58"/>
       <c r="B20" s="9"/>
       <c r="C20" s="66" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D20" s="67"/>
       <c r="E20" s="66"/>
@@ -5668,7 +5628,7 @@
       <c r="A21" s="58"/>
       <c r="B21" s="9"/>
       <c r="C21" s="66" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="66"/>
@@ -5680,7 +5640,7 @@
       <c r="A22" s="58"/>
       <c r="B22" s="9"/>
       <c r="C22" s="66" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D22" s="67"/>
       <c r="E22" s="66"/>
@@ -5692,7 +5652,7 @@
       <c r="A23" s="58"/>
       <c r="B23" s="9"/>
       <c r="C23" s="66" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="66"/>
@@ -5704,7 +5664,7 @@
       <c r="A24" s="58"/>
       <c r="B24" s="9"/>
       <c r="C24" s="66" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D24" s="67"/>
       <c r="E24" s="66"/>
@@ -5716,7 +5676,7 @@
       <c r="A25" s="73"/>
       <c r="B25" s="11"/>
       <c r="C25" s="50" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="50"/>
@@ -5748,7 +5708,7 @@
       <c r="F27" s="49"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:8">
@@ -5791,11 +5751,11 @@
         <v>161</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="57" t="s">
@@ -5807,7 +5767,7 @@
       <c r="A32" s="60"/>
       <c r="B32" s="92"/>
       <c r="C32" s="64" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D32" s="65"/>
       <c r="E32" s="93"/>
@@ -5879,7 +5839,7 @@
       <c r="A38" s="60"/>
       <c r="B38" s="92"/>
       <c r="C38" s="66" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D38" s="67"/>
       <c r="E38" s="93"/>
@@ -5891,7 +5851,7 @@
       <c r="A39" s="94"/>
       <c r="B39" s="95"/>
       <c r="C39" s="50" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D39" s="51"/>
       <c r="E39" s="96"/>
@@ -5973,14 +5933,14 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="49.375" customWidth="1"/>
     <col min="4" max="4" width="56.5" customWidth="1"/>
     <col min="6" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="27.875" customWidth="1"/>
@@ -6003,10 +5963,10 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:6">
@@ -6029,7 +5989,7 @@
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="57"/>
@@ -6063,7 +6023,7 @@
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="63" t="s">
@@ -6107,7 +6067,7 @@
       <c r="A10" s="58"/>
       <c r="B10" s="23"/>
       <c r="C10" s="66" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="66"/>
@@ -6118,7 +6078,7 @@
       <c r="A11" s="58"/>
       <c r="B11" s="15"/>
       <c r="C11" s="50" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="50"/>
@@ -6143,7 +6103,7 @@
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="57"/>
@@ -6185,7 +6145,7 @@
       <c r="A17" s="58"/>
       <c r="B17" s="9"/>
       <c r="C17" s="69" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D17" s="70"/>
       <c r="E17" s="66"/>
@@ -6229,7 +6189,7 @@
       <c r="A21" s="58"/>
       <c r="B21" s="9"/>
       <c r="C21" s="66" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="66"/>
@@ -6240,7 +6200,7 @@
       <c r="A22" s="58"/>
       <c r="B22" s="11"/>
       <c r="C22" s="50" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="50"/>
@@ -6265,7 +6225,7 @@
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="63" t="s">
@@ -6287,7 +6247,7 @@
       <c r="A26" s="58"/>
       <c r="B26" s="23"/>
       <c r="C26" s="64" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D26" s="65"/>
       <c r="E26" s="66"/>
@@ -6309,7 +6269,7 @@
       <c r="A28" s="58"/>
       <c r="B28" s="23"/>
       <c r="C28" s="66" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="66"/>
@@ -6320,7 +6280,7 @@
       <c r="A29" s="73"/>
       <c r="B29" s="15"/>
       <c r="C29" s="50" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="50"/>
@@ -6380,14 +6340,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="41.25" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
@@ -6411,7 +6371,7 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="24" customHeight="1" spans="2:7">
@@ -6433,15 +6393,15 @@
         <v>187</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -6475,15 +6435,15 @@
         <v>191</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:8">
@@ -6530,7 +6490,7 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6538,7 +6498,7 @@
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
     <col min="5" max="5" width="45.375" customWidth="1"/>
     <col min="6" max="6" width="29.625" customWidth="1"/>
     <col min="7" max="7" width="18.125" customWidth="1"/>
@@ -6564,7 +6524,7 @@
         <v>184</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:6">
@@ -6745,7 +6705,7 @@
         <v>218</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:6">
@@ -6855,7 +6815,7 @@
         <v>230</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="39" customHeight="1" spans="1:6">
@@ -7015,7 +6975,7 @@
         <v>246</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="38" customHeight="1" spans="1:6">
@@ -7046,7 +7006,7 @@
         <v>251</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7094,10 +7054,10 @@
         <v>256</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7145,10 +7105,10 @@
         <v>260</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" ht="38" customHeight="1" spans="1:6">
@@ -7179,7 +7139,7 @@
         <v>265</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -7293,10 +7253,10 @@
         <v>265</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -7399,10 +7359,10 @@
         <v>278</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" ht="40" customHeight="1"/>
@@ -7665,7 +7625,7 @@
         <v>298</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" ht="42" customHeight="1" spans="1:6">
@@ -7779,7 +7739,7 @@
         <v>310</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7855,7 +7815,7 @@
         <v>302</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="1:6">
@@ -7891,7 +7851,7 @@
         <v>319</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
